--- a/data/trans_orig/Q45B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Clase-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11543</v>
+        <v>11948</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006791335487631412</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02436446319245079</v>
+        <v>0.02521935183432913</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>3091</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9262</v>
+        <v>8963</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01007895057043702</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003239620117926007</v>
+        <v>0.003246076417034464</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03019937923445147</v>
+        <v>0.0292273325404484</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -785,19 +785,19 @@
         <v>6309</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2066</v>
+        <v>2071</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14450</v>
+        <v>13985</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00808320331273704</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002647727833480083</v>
+        <v>0.002653273177513308</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01851423504445582</v>
+        <v>0.01791884979862475</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>14158</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7852</v>
+        <v>7959</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24156</v>
+        <v>23999</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02988416720360479</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01657379422243177</v>
+        <v>0.0167996385561845</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05098717132799849</v>
+        <v>0.05065430881013658</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -835,19 +835,19 @@
         <v>38085</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27648</v>
+        <v>27538</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51145</v>
+        <v>50634</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1241853680529265</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09015137698614686</v>
+        <v>0.08979449720650277</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1667700142018282</v>
+        <v>0.1651048118214775</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -856,19 +856,19 @@
         <v>52244</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39922</v>
+        <v>39120</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68498</v>
+        <v>67074</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0669398091135144</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05115153003414798</v>
+        <v>0.05012384503173088</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08776684502636069</v>
+        <v>0.08594237818008445</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>456400</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>445775</v>
+        <v>445498</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>464148</v>
+        <v>463639</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9633244973087638</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9408975641933692</v>
+        <v>0.9403130233704344</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9796785594244436</v>
+        <v>0.9786042052075981</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>259</v>
@@ -906,19 +906,19 @@
         <v>265504</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>251153</v>
+        <v>250961</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>275977</v>
+        <v>276090</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8657356813766365</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8189412140890179</v>
+        <v>0.8183162393567807</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8998866538985706</v>
+        <v>0.9002540624382936</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>699</v>
@@ -927,19 +927,19 @@
         <v>721905</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>703432</v>
+        <v>705587</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>735168</v>
+        <v>734414</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9249769875737486</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9013079604870433</v>
+        <v>0.9040696167410575</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9419706429658254</v>
+        <v>0.941005629600992</v>
       </c>
     </row>
     <row r="7">
@@ -1044,19 +1044,19 @@
         <v>7379</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3669</v>
+        <v>3425</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13764</v>
+        <v>13503</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01984238214832214</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009865813218519041</v>
+        <v>0.009209020091516666</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03701349609673527</v>
+        <v>0.03631058929038523</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -1065,19 +1065,19 @@
         <v>7379</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3480</v>
+        <v>3308</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13672</v>
+        <v>14495</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.009987404849625946</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004710929762621986</v>
+        <v>0.004477777175562566</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01850541263314946</v>
+        <v>0.01961985268086457</v>
       </c>
     </row>
     <row r="9">
@@ -1094,19 +1094,19 @@
         <v>3514</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8727</v>
+        <v>8057</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009576648660735482</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002407356753963519</v>
+        <v>0.00238487463389685</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02378362089614543</v>
+        <v>0.02195784284219634</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>60</v>
@@ -1115,19 +1115,19 @@
         <v>61740</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47248</v>
+        <v>47856</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>77835</v>
+        <v>76195</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.166028652733581</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1270576678618924</v>
+        <v>0.1286921057439659</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2093110038185414</v>
+        <v>0.2049007791650755</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>64</v>
@@ -1136,19 +1136,19 @@
         <v>65254</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>51032</v>
+        <v>50454</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>83111</v>
+        <v>81904</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08832472903388579</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0690747963250353</v>
+        <v>0.06829139944213504</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1124940650238613</v>
+        <v>0.1108610498751115</v>
       </c>
     </row>
     <row r="10">
@@ -1165,19 +1165,19 @@
         <v>363420</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>358207</v>
+        <v>358877</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>366051</v>
+        <v>366059</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9904233513392645</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9762163791038546</v>
+        <v>0.9780421571578036</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9975926432460365</v>
+        <v>0.9976151253661032</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>295</v>
@@ -1186,19 +1186,19 @@
         <v>302746</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>285702</v>
+        <v>286097</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>316931</v>
+        <v>316624</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8141289651180968</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7682957453934424</v>
+        <v>0.7693576791382223</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.852275353829836</v>
+        <v>0.851449012019309</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>641</v>
@@ -1207,19 +1207,19 @@
         <v>666166</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>646510</v>
+        <v>649406</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>680245</v>
+        <v>682241</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9016878661164882</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8750819257221838</v>
+        <v>0.8790028834609515</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9207441574147445</v>
+        <v>0.9234459683777766</v>
       </c>
     </row>
     <row r="11">
@@ -1311,19 +1311,19 @@
         <v>2787</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8227</v>
+        <v>7481</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005137912378631288</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001515925258500513</v>
+        <v>0.001512006816722612</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01516763980552559</v>
+        <v>0.01379230944358537</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6471</v>
+        <v>4707</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.005600925290740705</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03856989042074783</v>
+        <v>0.02805459435923678</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1353,19 +1353,19 @@
         <v>3726</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>932</v>
+        <v>1108</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9607</v>
+        <v>10052</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005247301792490924</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001311786537458787</v>
+        <v>0.00156078641956582</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01352773578445088</v>
+        <v>0.01415447784951104</v>
       </c>
     </row>
     <row r="13">
@@ -1382,19 +1382,19 @@
         <v>9434</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4393</v>
+        <v>4592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17625</v>
+        <v>18758</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0173929802442731</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008098614236302884</v>
+        <v>0.008465485262805141</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03249450035798281</v>
+        <v>0.03458350547727657</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1403,19 +1403,19 @@
         <v>17697</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11425</v>
+        <v>11394</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26728</v>
+        <v>27242</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1054760547259466</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06809598914925066</v>
+        <v>0.0679072891165152</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1593019376409496</v>
+        <v>0.1623672236635977</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -1424,19 +1424,19 @@
         <v>27131</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18301</v>
+        <v>18063</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39549</v>
+        <v>38053</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03820310375596445</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0257698541282785</v>
+        <v>0.02543464411374309</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05568918081977452</v>
+        <v>0.0535822953418429</v>
       </c>
     </row>
     <row r="14">
@@ -1453,19 +1453,19 @@
         <v>530168</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>521637</v>
+        <v>520968</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>536021</v>
+        <v>535963</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9774691073770956</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.961739724011725</v>
+        <v>0.9605063633194164</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9882602311975648</v>
+        <v>0.9881515362506816</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>145</v>
@@ -1474,19 +1474,19 @@
         <v>149145</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>140249</v>
+        <v>140040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>156001</v>
+        <v>155997</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8889230199833127</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8359011587009599</v>
+        <v>0.8346566037844737</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9297827996846046</v>
+        <v>0.9297601218187816</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>665</v>
@@ -1495,19 +1495,19 @@
         <v>679314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>666694</v>
+        <v>667404</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>688315</v>
+        <v>689045</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9565495944515446</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.938778978694645</v>
+        <v>0.9397791344101799</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9692238849445739</v>
+        <v>0.9702527718857841</v>
       </c>
     </row>
     <row r="15">
@@ -1599,19 +1599,19 @@
         <v>4387</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>946</v>
+        <v>1527</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10582</v>
+        <v>10969</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003542983671162573</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0007641953478654626</v>
+        <v>0.001233414726642769</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008545667597728852</v>
+        <v>0.008857609337482602</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6419</v>
+        <v>5774</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001502482556970514</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008987084090738619</v>
+        <v>0.008083954826711245</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1641,19 +1641,19 @@
         <v>5461</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1996</v>
+        <v>1911</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12929</v>
+        <v>13171</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002796550564275644</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001022361732140109</v>
+        <v>0.0009785190799257487</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006621615212464065</v>
+        <v>0.006745108278014271</v>
       </c>
     </row>
     <row r="17">
@@ -1670,19 +1670,19 @@
         <v>16893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10017</v>
+        <v>9903</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27115</v>
+        <v>27393</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01364176532974912</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008089413515433467</v>
+        <v>0.007996655402154247</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02189662008904761</v>
+        <v>0.02212081350200877</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>57</v>
@@ -1691,19 +1691,19 @@
         <v>58243</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45146</v>
+        <v>45547</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74860</v>
+        <v>73812</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08153958172731272</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06320386860844528</v>
+        <v>0.06376571546415184</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1048047053088747</v>
+        <v>0.1033368272838793</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>74</v>
@@ -1712,19 +1712,19 @@
         <v>75136</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>59410</v>
+        <v>59372</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>93607</v>
+        <v>92827</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03847937884143739</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03042582097374597</v>
+        <v>0.03040607240344953</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04793893986716541</v>
+        <v>0.04753974582636157</v>
       </c>
     </row>
     <row r="18">
@@ -1741,19 +1741,19 @@
         <v>1217054</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1206142</v>
+        <v>1205891</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1225541</v>
+        <v>1225191</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9828152509990883</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9740041439723205</v>
+        <v>0.9738010628701186</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.989669074570105</v>
+        <v>0.9893862478169869</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>636</v>
@@ -1762,19 +1762,19 @@
         <v>654969</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>638651</v>
+        <v>639541</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>668974</v>
+        <v>667748</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9169579357157167</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8941116361814395</v>
+        <v>0.8953581021988088</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9365642916273168</v>
+        <v>0.9348487589798079</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1839</v>
@@ -1783,19 +1783,19 @@
         <v>1872024</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1852850</v>
+        <v>1854017</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1887816</v>
+        <v>1888825</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.958724070594287</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9489044293149219</v>
+        <v>0.9495020016844778</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9668117348262603</v>
+        <v>0.9673285186491719</v>
       </c>
     </row>
     <row r="19">
@@ -1934,19 +1934,19 @@
         <v>7522</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3033</v>
+        <v>2903</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15052</v>
+        <v>15267</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02145857593362813</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.008651776582769603</v>
+        <v>0.008282114915785158</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04293790841073631</v>
+        <v>0.04355137837063853</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -1955,19 +1955,19 @@
         <v>26396</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17020</v>
+        <v>17410</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38246</v>
+        <v>37683</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04641033767730195</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02992576462465999</v>
+        <v>0.03061076402443031</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06724525141353219</v>
+        <v>0.06625518261803108</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>31</v>
@@ -1976,19 +1976,19 @@
         <v>33918</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>24242</v>
+        <v>23076</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>49260</v>
+        <v>47356</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03689559394619583</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02636950844181248</v>
+        <v>0.02510123431319543</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0535840072138754</v>
+        <v>0.05151218608297447</v>
       </c>
     </row>
     <row r="22">
@@ -2005,19 +2005,19 @@
         <v>343033</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>335503</v>
+        <v>335288</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>347522</v>
+        <v>347652</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9785414240663719</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9570620915892637</v>
+        <v>0.9564486216293618</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9913482234172304</v>
+        <v>0.991717885084215</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>515</v>
@@ -2026,19 +2026,19 @@
         <v>542356</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>530506</v>
+        <v>531069</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>551732</v>
+        <v>551342</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.953589662322698</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9327547485864673</v>
+        <v>0.9337448173819689</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9700742353753397</v>
+        <v>0.9693892359755697</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>848</v>
@@ -2047,19 +2047,19 @@
         <v>885389</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>870047</v>
+        <v>871951</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>895065</v>
+        <v>896231</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9631044060538042</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9464159927861252</v>
+        <v>0.9484878139170256</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9736304915581876</v>
+        <v>0.9748987656868046</v>
       </c>
     </row>
     <row r="23">
@@ -2198,19 +2198,19 @@
         <v>3781</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>994</v>
+        <v>1008</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9233</v>
+        <v>9518</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01267994646898253</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003332768456265608</v>
+        <v>0.00338137456334429</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03096066651359989</v>
+        <v>0.03191658295500936</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>50</v>
@@ -2219,19 +2219,19 @@
         <v>49288</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38143</v>
+        <v>35991</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63683</v>
+        <v>63503</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03946967096401317</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03054482682915639</v>
+        <v>0.02882126304256535</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05099694722478618</v>
+        <v>0.0508531599364901</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -2240,19 +2240,19 @@
         <v>53069</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>39686</v>
+        <v>40227</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>67981</v>
+        <v>68074</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03430553704844356</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02565397380983357</v>
+        <v>0.02600409885638761</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04394481303090169</v>
+        <v>0.04400473925571163</v>
       </c>
     </row>
     <row r="26">
@@ -2269,19 +2269,19 @@
         <v>294420</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>288968</v>
+        <v>288683</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>297207</v>
+        <v>297193</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9873200535310175</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9690393334864005</v>
+        <v>0.9680834170449909</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9966672315437344</v>
+        <v>0.9966186254366557</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1188</v>
@@ -2290,19 +2290,19 @@
         <v>1199472</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1185077</v>
+        <v>1185257</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1210617</v>
+        <v>1212769</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9605303290359868</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9490030527752142</v>
+        <v>0.94914684006351</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9694551731708438</v>
+        <v>0.971178736957435</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1490</v>
@@ -2311,19 +2311,19 @@
         <v>1493891</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1478979</v>
+        <v>1478886</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1507274</v>
+        <v>1506733</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9656944629515565</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9560551869690983</v>
+        <v>0.9559952607442881</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9743460261901663</v>
+        <v>0.9739959011436123</v>
       </c>
     </row>
     <row r="27">
@@ -2415,19 +2415,19 @@
         <v>10392</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5014</v>
+        <v>4910</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19274</v>
+        <v>19530</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003177711955685367</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001533195231818968</v>
+        <v>0.001501339780926722</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.00589391056782132</v>
+        <v>0.005972042433204391</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -2436,19 +2436,19 @@
         <v>12483</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7035</v>
+        <v>6528</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20714</v>
+        <v>21679</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003695138564566572</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002082533717039137</v>
+        <v>0.001932446784291091</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.006131809085206324</v>
+        <v>0.006417403007222822</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>22</v>
@@ -2457,19 +2457,19 @@
         <v>22874</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>13737</v>
+        <v>13916</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>34102</v>
+        <v>34119</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003440625417846865</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002066226730400224</v>
+        <v>0.00209311880933777</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.00512944522754909</v>
+        <v>0.00513203316569684</v>
       </c>
     </row>
     <row r="29">
@@ -2486,19 +2486,19 @@
         <v>55303</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>41811</v>
+        <v>41326</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>71859</v>
+        <v>71793</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01691119738093896</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01278544412722178</v>
+        <v>0.01263708911520768</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02197405714399705</v>
+        <v>0.0219537147957541</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>245</v>
@@ -2507,19 +2507,19 @@
         <v>251449</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>220600</v>
+        <v>221661</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>281180</v>
+        <v>287827</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07443451990101897</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06530252633888378</v>
+        <v>0.06561652811872715</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08323560636359155</v>
+        <v>0.0852032944793096</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>299</v>
@@ -2528,19 +2528,19 @@
         <v>306752</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>273984</v>
+        <v>272867</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>341497</v>
+        <v>342701</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04613979834424753</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04121110967480851</v>
+        <v>0.04104309012882614</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05136600544853815</v>
+        <v>0.05154711940606489</v>
       </c>
     </row>
     <row r="30">
@@ -2557,19 +2557,19 @@
         <v>3204495</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3185330</v>
+        <v>3186496</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3219519</v>
+        <v>3220038</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9799110906633757</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9740503006563319</v>
+        <v>0.9744068926953577</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9845051236352417</v>
+        <v>0.9846640206047828</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3038</v>
@@ -2578,19 +2578,19 @@
         <v>3114192</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3085362</v>
+        <v>3079873</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3145305</v>
+        <v>3146013</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9218703415344145</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9133360653441289</v>
+        <v>0.9117110328880487</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.931080386830376</v>
+        <v>0.9312900950948054</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6182</v>
@@ -2599,19 +2599,19 @@
         <v>6318688</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6283185</v>
+        <v>6282548</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6352946</v>
+        <v>6354776</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9504195762379056</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9450793921281009</v>
+        <v>0.9449836979597315</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9555725573383992</v>
+        <v>0.9558477591942999</v>
       </c>
     </row>
     <row r="31">
@@ -2958,19 +2958,19 @@
         <v>5717</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1937</v>
+        <v>1906</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14313</v>
+        <v>13532</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01823302462672296</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006176684209134946</v>
+        <v>0.00607965623836093</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0456478856022068</v>
+        <v>0.0431564431833811</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -2979,19 +2979,19 @@
         <v>5717</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1946</v>
+        <v>1960</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14487</v>
+        <v>12957</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007626655463025022</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002596349097360396</v>
+        <v>0.00261495622417521</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01932522960411839</v>
+        <v>0.01728524038674287</v>
       </c>
     </row>
     <row r="5">
@@ -3008,19 +3008,19 @@
         <v>15822</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8987</v>
+        <v>8657</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26972</v>
+        <v>26367</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03628449129252401</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02060836196014437</v>
+        <v>0.01985209751717514</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06185401055267299</v>
+        <v>0.06046535399295833</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -3029,19 +3029,19 @@
         <v>38968</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27034</v>
+        <v>27792</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52628</v>
+        <v>54080</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1242769746456284</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08621598496858149</v>
+        <v>0.08863279940848739</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1678420139963398</v>
+        <v>0.1724719274708054</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>48</v>
@@ -3050,19 +3050,19 @@
         <v>54790</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41106</v>
+        <v>40959</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>71640</v>
+        <v>70802</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07309069144905327</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05483559524106772</v>
+        <v>0.05463907645164862</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09556845832716876</v>
+        <v>0.09444958318450011</v>
       </c>
     </row>
     <row r="6">
@@ -3079,19 +3079,19 @@
         <v>420243</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>409093</v>
+        <v>409698</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>427078</v>
+        <v>427408</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.963715508707476</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9381459894473273</v>
+        <v>0.9395346460070414</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9793916380398557</v>
+        <v>0.9801479024828247</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>243</v>
@@ -3100,19 +3100,19 @@
         <v>268873</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>253865</v>
+        <v>254019</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>281010</v>
+        <v>281361</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8574900007276486</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8096263124585905</v>
+        <v>0.8101192545488557</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8961986538696737</v>
+        <v>0.8973157264943592</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>632</v>
@@ -3121,19 +3121,19 @@
         <v>689115</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>672005</v>
+        <v>672094</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>702730</v>
+        <v>703069</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9192826530879217</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8964568787060945</v>
+        <v>0.8965758319426281</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.937444360155626</v>
+        <v>0.9378969099260214</v>
       </c>
     </row>
     <row r="7">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4819</v>
+        <v>5239</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002242810075551719</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01153530563049709</v>
+        <v>0.01253911146953921</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -3246,19 +3246,19 @@
         <v>4850</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1847</v>
+        <v>1876</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10723</v>
+        <v>10731</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01440003983169674</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005483448986264251</v>
+        <v>0.005570450718493138</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03183559079180134</v>
+        <v>0.03186016102858304</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -3267,19 +3267,19 @@
         <v>5787</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1982</v>
+        <v>1991</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12346</v>
+        <v>12564</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007669287488332044</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002626982154480944</v>
+        <v>0.002637813570117923</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0163603907959344</v>
+        <v>0.01664914327600977</v>
       </c>
     </row>
     <row r="9">
@@ -3296,19 +3296,19 @@
         <v>9368</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4185</v>
+        <v>4971</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16542</v>
+        <v>18338</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02242266437223729</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01001670608710939</v>
+        <v>0.01189866464001989</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03959390888432912</v>
+        <v>0.04389367996670867</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>41</v>
@@ -3317,19 +3317,19 @@
         <v>43502</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31699</v>
+        <v>31434</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>56992</v>
+        <v>56230</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1291514931872127</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09410916150629232</v>
+        <v>0.0933231833640244</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1692022901246322</v>
+        <v>0.1669406337430687</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>50</v>
@@ -3338,19 +3338,19 @@
         <v>52870</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>39999</v>
+        <v>39017</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>68045</v>
+        <v>67970</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0700619366796655</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05300626398106724</v>
+        <v>0.05170417273804385</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09017171588624304</v>
+        <v>0.0900723776180609</v>
       </c>
     </row>
     <row r="10">
@@ -3367,19 +3367,19 @@
         <v>407480</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>400149</v>
+        <v>398581</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>412732</v>
+        <v>412448</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.975334525552211</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9577861769770458</v>
+        <v>0.9540344012991294</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9879056074437605</v>
+        <v>0.987224561414502</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>258</v>
@@ -3388,19 +3388,19 @@
         <v>288475</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>274191</v>
+        <v>274552</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>300720</v>
+        <v>301263</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8564484669810906</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8140423696869186</v>
+        <v>0.8151135601720982</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.892802402309003</v>
+        <v>0.894413435599589</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>622</v>
@@ -3409,19 +3409,19 @@
         <v>695956</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>680014</v>
+        <v>679150</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>709630</v>
+        <v>709770</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9222687758320025</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9011433173599773</v>
+        <v>0.8999983169874924</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9403896119060994</v>
+        <v>0.940575006210171</v>
       </c>
     </row>
     <row r="11">
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7531</v>
+        <v>7374</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.003390068556606477</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01204284341284402</v>
+        <v>0.01179137580651912</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3534,19 +3534,19 @@
         <v>8325</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3272</v>
+        <v>3871</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16642</v>
+        <v>17627</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03200459948282135</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01257785683410962</v>
+        <v>0.01488076662717702</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06397500426368903</v>
+        <v>0.0677621718356836</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -3555,19 +3555,19 @@
         <v>10445</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5247</v>
+        <v>5330</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19110</v>
+        <v>19179</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01179618339358709</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005926001812522562</v>
+        <v>0.006019035876510997</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0215819264072642</v>
+        <v>0.02165976941439378</v>
       </c>
     </row>
     <row r="13">
@@ -3584,19 +3584,19 @@
         <v>15164</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9070</v>
+        <v>8886</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24408</v>
+        <v>24639</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02424817342379145</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01450300440387381</v>
+        <v>0.01420974463850615</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03903130846616511</v>
+        <v>0.03939941143717074</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -3605,19 +3605,19 @@
         <v>19284</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11800</v>
+        <v>11535</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27836</v>
+        <v>28581</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07413116720766397</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04536195272216971</v>
+        <v>0.04434520210798215</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1070101804707619</v>
+        <v>0.109871640056295</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -3626,19 +3626,19 @@
         <v>34447</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25090</v>
+        <v>23346</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47406</v>
+        <v>46620</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03890234249757017</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02833501588567302</v>
+        <v>0.02636472147208301</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05353666375212154</v>
+        <v>0.05264922176792589</v>
       </c>
     </row>
     <row r="14">
@@ -3655,19 +3655,19 @@
         <v>608071</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>597752</v>
+        <v>597373</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>614370</v>
+        <v>614560</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9723617580196021</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9558603315044436</v>
+        <v>0.9552541662601859</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9824339859201731</v>
+        <v>0.9827385280218472</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>218</v>
@@ -3676,19 +3676,19 @@
         <v>232520</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>222177</v>
+        <v>221172</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>242096</v>
+        <v>241507</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8938642333095147</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8541020328915603</v>
+        <v>0.8502385285122421</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9306756615233526</v>
+        <v>0.9284118050860656</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>788</v>
@@ -3697,19 +3697,19 @@
         <v>840591</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>825296</v>
+        <v>827035</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>851433</v>
+        <v>853239</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9493014741088428</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9320281772398059</v>
+        <v>0.9339923437202569</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9615448250235707</v>
+        <v>0.96358522622034</v>
       </c>
     </row>
     <row r="15">
@@ -3801,19 +3801,19 @@
         <v>3282</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9438</v>
+        <v>9057</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002849024044626176</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0007907887423770607</v>
+        <v>0.0007899056229365768</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008192406453097196</v>
+        <v>0.007861736659598096</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3822,19 +3822,19 @@
         <v>4046</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10081</v>
+        <v>10062</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005291323216320229</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001318564863603689</v>
+        <v>0.001321709168423296</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01318328686259233</v>
+        <v>0.01315828620978953</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -3843,19 +3843,19 @@
         <v>7329</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3392</v>
+        <v>3005</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15179</v>
+        <v>14804</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003823360569144905</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001769394271600155</v>
+        <v>0.001567701995338763</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007919061112399609</v>
+        <v>0.007723375252969858</v>
       </c>
     </row>
     <row r="17">
@@ -3872,19 +3872,19 @@
         <v>26253</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16655</v>
+        <v>17264</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38736</v>
+        <v>39594</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02278670167735682</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0144558767057212</v>
+        <v>0.01498451597093985</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03362196710637509</v>
+        <v>0.03436700906114167</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -3893,19 +3893,19 @@
         <v>59302</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44696</v>
+        <v>44790</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74068</v>
+        <v>74130</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07755073840236205</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05845012402105138</v>
+        <v>0.05857254139247113</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09686087976071982</v>
+        <v>0.09694203994279853</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>82</v>
@@ -3914,19 +3914,19 @@
         <v>85555</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>68033</v>
+        <v>70008</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>106658</v>
+        <v>106267</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04463439414258683</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03549336401465519</v>
+        <v>0.03652384338863382</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05564430213402573</v>
+        <v>0.0554404129509907</v>
       </c>
     </row>
     <row r="18">
@@ -3943,19 +3943,19 @@
         <v>1122564</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1110298</v>
+        <v>1109638</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1132694</v>
+        <v>1131572</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.974364274278017</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9637177174070959</v>
+        <v>0.9631444101920261</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9831571094248232</v>
+        <v>0.9821833263511267</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>647</v>
@@ -3964,19 +3964,19 @@
         <v>701339</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>685998</v>
+        <v>686368</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>715785</v>
+        <v>716783</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9171579383813178</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8970959872198025</v>
+        <v>0.8975808931020985</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.936049953896622</v>
+        <v>0.9373551387204622</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1697</v>
@@ -3985,19 +3985,19 @@
         <v>1823903</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1801890</v>
+        <v>1802333</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1841413</v>
+        <v>1840196</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9515422452882683</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9400579564844228</v>
+        <v>0.9402891143774285</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9606771630146834</v>
+        <v>0.9600424406397987</v>
       </c>
     </row>
     <row r="19">
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4382</v>
+        <v>5256</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001717379540119665</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.008582862642062627</v>
+        <v>0.01029313337665777</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -4113,16 +4113,16 @@
         <v>1987</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11363</v>
+        <v>12181</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006812469300676856</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002623863452643291</v>
+        <v>0.002624216820735657</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0150072911534799</v>
+        <v>0.01608877309237741</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -4131,19 +4131,19 @@
         <v>6035</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2046</v>
+        <v>2064</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12538</v>
+        <v>12373</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004760349879995179</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001613847541511415</v>
+        <v>0.001627826526554821</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009890065255980181</v>
+        <v>0.009760096326324703</v>
       </c>
     </row>
     <row r="21">
@@ -4160,19 +4160,19 @@
         <v>5401</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1994</v>
+        <v>1034</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12013</v>
+        <v>11156</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01057827569774344</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00390481701449581</v>
+        <v>0.002024150967039916</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02352681432555384</v>
+        <v>0.0218480151310051</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -4181,19 +4181,19 @@
         <v>21979</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13400</v>
+        <v>13968</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33774</v>
+        <v>33051</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02902872015375143</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01769776480033913</v>
+        <v>0.01844874689137299</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04460814694130719</v>
+        <v>0.04365230947245609</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -4202,19 +4202,19 @@
         <v>27380</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>18591</v>
+        <v>18522</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>38564</v>
+        <v>40147</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02159754285016611</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01466460368885715</v>
+        <v>0.01461052481269351</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03041981536955914</v>
+        <v>0.03166843486979583</v>
       </c>
     </row>
     <row r="22">
@@ -4231,19 +4231,19 @@
         <v>504318</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>496892</v>
+        <v>498145</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>507800</v>
+        <v>508677</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9877043447621369</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9731601899437058</v>
+        <v>0.9756138317474506</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.99452452024973</v>
+        <v>0.9962418259034641</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>673</v>
@@ -4252,19 +4252,19 @@
         <v>729997</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>716873</v>
+        <v>718312</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>739256</v>
+        <v>738976</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9641588105455717</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.946824986311171</v>
+        <v>0.9487250551788829</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.97638701625911</v>
+        <v>0.9760176171364332</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1154</v>
@@ -4273,19 +4273,19 @@
         <v>1234315</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1222539</v>
+        <v>1221000</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1244668</v>
+        <v>1244406</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9736421072698387</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9643529028264559</v>
+        <v>0.9631391434299524</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9818086805605729</v>
+        <v>0.9816017518017501</v>
       </c>
     </row>
     <row r="23">
@@ -4390,19 +4390,19 @@
         <v>4870</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1944</v>
+        <v>1861</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11535</v>
+        <v>11748</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.004409912190719047</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001760268058794259</v>
+        <v>0.001685280825515296</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01044604335896669</v>
+        <v>0.01063898168067519</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -4411,19 +4411,19 @@
         <v>4870</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1889</v>
+        <v>1863</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10882</v>
+        <v>10793</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.003551569133692913</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001377884903104175</v>
+        <v>0.00135889756910673</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.007936567591927197</v>
+        <v>0.007871692554196333</v>
       </c>
     </row>
     <row r="25">
@@ -4440,19 +4440,19 @@
         <v>6077</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1999</v>
+        <v>2804</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12647</v>
+        <v>13363</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02276916216232572</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007488580952199223</v>
+        <v>0.01050642167102761</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04738626506884237</v>
+        <v>0.05007242292835297</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -4461,19 +4461,19 @@
         <v>46073</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33459</v>
+        <v>34207</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59725</v>
+        <v>59834</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04172198677375504</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03029936332968503</v>
+        <v>0.03097646704300194</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05408491604515023</v>
+        <v>0.05418365179960708</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>50</v>
@@ -4482,19 +4482,19 @@
         <v>52149</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>39678</v>
+        <v>39613</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>67471</v>
+        <v>66522</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03803301866901782</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0289376477029181</v>
+        <v>0.02888978845605572</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04920698748127902</v>
+        <v>0.04851538138754095</v>
       </c>
     </row>
     <row r="26">
@@ -4511,19 +4511,19 @@
         <v>260805</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>254235</v>
+        <v>253519</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>264883</v>
+        <v>264078</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9772308378376743</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9526137349311578</v>
+        <v>0.9499275770716472</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9925114190478008</v>
+        <v>0.9894935783289724</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>990</v>
@@ -4532,19 +4532,19 @@
         <v>1053336</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1037733</v>
+        <v>1038539</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1066065</v>
+        <v>1065890</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9538681010355259</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9397387828374095</v>
+        <v>0.940468609031477</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9653954878718803</v>
+        <v>0.965237186499873</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1249</v>
@@ -4553,19 +4553,19 @@
         <v>1314141</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1297049</v>
+        <v>1298686</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1327224</v>
+        <v>1327643</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9584154121972893</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9459501069401138</v>
+        <v>0.9471440798498287</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9679573715679495</v>
+        <v>0.9682626129113757</v>
       </c>
     </row>
     <row r="27">
@@ -4657,19 +4657,19 @@
         <v>7216</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3193</v>
+        <v>2825</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14446</v>
+        <v>13828</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002116959463205769</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0009367668147209651</v>
+        <v>0.0008286020519926747</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.004237953706364754</v>
+        <v>0.004056656098122209</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -4678,19 +4678,19 @@
         <v>32967</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>21977</v>
+        <v>22756</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>46171</v>
+        <v>45885</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009321545468685941</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006214233732132516</v>
+        <v>0.006434483169315458</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01305512415926121</v>
+        <v>0.01297415783001688</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>38</v>
@@ -4699,19 +4699,19 @@
         <v>40183</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>29772</v>
+        <v>28416</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>56074</v>
+        <v>56528</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.005785554111036415</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004286592898287897</v>
+        <v>0.00409133039013345</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.008073487594442605</v>
+        <v>0.008138862249423744</v>
       </c>
     </row>
     <row r="29">
@@ -4728,19 +4728,19 @@
         <v>78084</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>62578</v>
+        <v>61887</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>98872</v>
+        <v>99751</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02290683380778522</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01835778198496693</v>
+        <v>0.01815516434728751</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02900518916041494</v>
+        <v>0.02926283546826732</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>217</v>
@@ -4749,19 +4749,19 @@
         <v>229107</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>197781</v>
+        <v>200552</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>260870</v>
+        <v>259571</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06478141936761002</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05592378778247286</v>
+        <v>0.05670723915995057</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07376250209823625</v>
+        <v>0.07339533388890027</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>290</v>
@@ -4770,19 +4770,19 @@
         <v>307191</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>276813</v>
+        <v>276115</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>345102</v>
+        <v>345975</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04422948584470281</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03985561936201057</v>
+        <v>0.03975517723803623</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04968782194593854</v>
+        <v>0.04981352444213352</v>
       </c>
     </row>
     <row r="30">
@@ -4799,19 +4799,19 @@
         <v>3323481</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3301793</v>
+        <v>3302886</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3340276</v>
+        <v>3340463</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.974976206729009</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9686136941367215</v>
+        <v>0.9689343796238974</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9799032254005126</v>
+        <v>0.9799580150509211</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3029</v>
@@ -4820,19 +4820,19 @@
         <v>3274541</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3243923</v>
+        <v>3242817</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3306238</v>
+        <v>3303666</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.925897035163704</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9172394375548081</v>
+        <v>0.9169268210970145</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9348595483631809</v>
+        <v>0.9341321271286511</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6142</v>
@@ -4841,19 +4841,19 @@
         <v>6598023</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6558211</v>
+        <v>6559728</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6630295</v>
+        <v>6633060</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9499849600442608</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9442529083707738</v>
+        <v>0.9444713451539056</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9546314755998747</v>
+        <v>0.9550296679569311</v>
       </c>
     </row>
     <row r="31">
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7278</v>
+        <v>7290</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005937525924399108</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0209695325383983</v>
+        <v>0.0210058610831897</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7017</v>
+        <v>6854</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002654970933544287</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009041115513998721</v>
+        <v>0.008830569918712564</v>
       </c>
     </row>
     <row r="5">
@@ -5250,19 +5250,19 @@
         <v>3943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10068</v>
+        <v>10143</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009189686850181648</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002400215512291219</v>
+        <v>0.002385592193111039</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02346375704398019</v>
+        <v>0.0236372831113956</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -5271,19 +5271,19 @@
         <v>12601</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6883</v>
+        <v>6801</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21541</v>
+        <v>21786</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03630733919939214</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01983289252744057</v>
+        <v>0.01959711258409329</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0620672575330609</v>
+        <v>0.06277328589003386</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -5292,19 +5292,19 @@
         <v>16544</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9747</v>
+        <v>9886</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26236</v>
+        <v>27144</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02131537348967183</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01255833079726046</v>
+        <v>0.01273697009962613</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03380349585632215</v>
+        <v>0.03497230325028672</v>
       </c>
     </row>
     <row r="6">
@@ -5321,19 +5321,19 @@
         <v>425149</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>419024</v>
+        <v>418949</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>428062</v>
+        <v>428068</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9908103131498184</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9765362429560198</v>
+        <v>0.9763627168886044</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9975997844877088</v>
+        <v>0.9976144078068889</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>318</v>
@@ -5342,19 +5342,19 @@
         <v>332394</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>323132</v>
+        <v>322971</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>338404</v>
+        <v>338549</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9577551348762088</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9310675726153067</v>
+        <v>0.9306040170956282</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9750726368057517</v>
+        <v>0.9754913285340253</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>710</v>
@@ -5363,19 +5363,19 @@
         <v>757542</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>747967</v>
+        <v>746992</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>764298</v>
+        <v>765116</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9760296555767839</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.96369231260823</v>
+        <v>0.9624362903718375</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9847339113138289</v>
+        <v>0.985787695153966</v>
       </c>
     </row>
     <row r="7">
@@ -5480,19 +5480,19 @@
         <v>2984</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>953</v>
+        <v>907</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9862</v>
+        <v>8145</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008038670624342594</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002567245613538431</v>
+        <v>0.002443872796690117</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02656943927456711</v>
+        <v>0.0219442743640613</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -5501,19 +5501,19 @@
         <v>2984</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8846</v>
+        <v>7992</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004026867448754673</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001248706266645283</v>
+        <v>0.001246936572004416</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0119389890136457</v>
+        <v>0.01078625700051192</v>
       </c>
     </row>
     <row r="9">
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6427</v>
+        <v>6804</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.005279715212119282</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01738021880299738</v>
+        <v>0.01840147075349731</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -5551,19 +5551,19 @@
         <v>12531</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6710</v>
+        <v>6699</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20577</v>
+        <v>21328</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03376217630405767</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01807804230679708</v>
+        <v>0.01804758370260913</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05543933655532499</v>
+        <v>0.05746368060867064</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -5572,19 +5572,19 @@
         <v>14484</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8446</v>
+        <v>7899</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22718</v>
+        <v>23229</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01954763347763821</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01139873011526128</v>
+        <v>0.01066130639247586</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03066116946500622</v>
+        <v>0.03135149100284357</v>
       </c>
     </row>
     <row r="10">
@@ -5601,7 +5601,7 @@
         <v>367821</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>363346</v>
+        <v>362969</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>369773</v>
@@ -5610,7 +5610,7 @@
         <v>0.9947202847878808</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9826197811970008</v>
+        <v>0.9815985292465027</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -5622,19 +5622,19 @@
         <v>355646</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>345988</v>
+        <v>345150</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>361681</v>
+        <v>362327</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9581991530715998</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.932177436336094</v>
+        <v>0.929920404471493</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9744597015650319</v>
+        <v>0.9761989276321145</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>681</v>
@@ -5643,19 +5643,19 @@
         <v>723467</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>714567</v>
+        <v>713757</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>730260</v>
+        <v>729971</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9764254990736071</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9644143499679534</v>
+        <v>0.9633202539772928</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9855936539678064</v>
+        <v>0.9852038302815155</v>
       </c>
     </row>
     <row r="11">
@@ -5760,19 +5760,19 @@
         <v>2816</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>897</v>
+        <v>914</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7645</v>
+        <v>8262</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01703658064816737</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005427809865024046</v>
+        <v>0.005530123016434207</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04625760881163783</v>
+        <v>0.04998669549199852</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -5781,19 +5781,19 @@
         <v>2816</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7435</v>
+        <v>7519</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004103976190191962</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001340898049341999</v>
+        <v>0.0013389843210479</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01083633799483995</v>
+        <v>0.01095915807555764</v>
       </c>
     </row>
     <row r="13">
@@ -5810,19 +5810,19 @@
         <v>4051</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>998</v>
+        <v>1021</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9147</v>
+        <v>9259</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007777576554346938</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001915573087672456</v>
+        <v>0.001960947198818204</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0175624895766729</v>
+        <v>0.01777818755022218</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -5831,19 +5831,19 @@
         <v>7534</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3597</v>
+        <v>3636</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14523</v>
+        <v>14438</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04558359267487931</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02176391963213927</v>
+        <v>0.02200155007212677</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08787265264264278</v>
+        <v>0.08735642508028861</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -5852,19 +5852,19 @@
         <v>11585</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6832</v>
+        <v>6405</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19799</v>
+        <v>19714</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01688474384389153</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009957884465406051</v>
+        <v>0.00933507397115604</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0288575374002599</v>
+        <v>0.02873313247783131</v>
       </c>
     </row>
     <row r="14">
@@ -5881,19 +5881,19 @@
         <v>516779</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>511683</v>
+        <v>511571</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>519832</v>
+        <v>519809</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.992222423445653</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9824375104233272</v>
+        <v>0.9822218124497779</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9980844269123276</v>
+        <v>0.9980390528011818</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>141</v>
@@ -5902,19 +5902,19 @@
         <v>154928</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>147659</v>
+        <v>147054</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>159884</v>
+        <v>159714</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9373798266769533</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8933980122674824</v>
+        <v>0.889735289191952</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9673665899438098</v>
+        <v>0.9663343586064745</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>638</v>
@@ -5923,19 +5923,19 @@
         <v>671707</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>662799</v>
+        <v>662852</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>677462</v>
+        <v>677717</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9790112799659165</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9660266314373016</v>
+        <v>0.966104567170704</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9873988061265476</v>
+        <v>0.9877703237081245</v>
       </c>
     </row>
     <row r="15">
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6234</v>
+        <v>6358</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0009224263218778788</v>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005432360189795337</v>
+        <v>0.005540476212753157</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -6048,19 +6048,19 @@
         <v>5620</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1945</v>
+        <v>1927</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12508</v>
+        <v>11324</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006842955253075645</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002367972694485386</v>
+        <v>0.002345964706115191</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01522928457033525</v>
+        <v>0.01378855790452965</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -6069,19 +6069,19 @@
         <v>6679</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2921</v>
+        <v>2839</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14507</v>
+        <v>13641</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003392074702125894</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001483653375204832</v>
+        <v>0.00144187051614889</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007367967187559285</v>
+        <v>0.006928212566959718</v>
       </c>
     </row>
     <row r="17">
@@ -6098,19 +6098,19 @@
         <v>9904</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5452</v>
+        <v>4947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17465</v>
+        <v>17543</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.008630112381072655</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004750680285028806</v>
+        <v>0.004310413501156727</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01521856789255214</v>
+        <v>0.01528667809604336</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -6119,19 +6119,19 @@
         <v>42851</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32380</v>
+        <v>30640</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56834</v>
+        <v>56516</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05217487418159249</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03942538068641689</v>
+        <v>0.03730709750384603</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06920132784277896</v>
+        <v>0.06881421646865173</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -6140,19 +6140,19 @@
         <v>52755</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38475</v>
+        <v>40508</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68254</v>
+        <v>68505</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02679407234118103</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01954161687706454</v>
+        <v>0.02057382545967768</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03466624829704398</v>
+        <v>0.03479348127562713</v>
       </c>
     </row>
     <row r="18">
@@ -6169,19 +6169,19 @@
         <v>1136638</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1128841</v>
+        <v>1128332</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1141645</v>
+        <v>1141713</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9904474612970494</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9836536959553847</v>
+        <v>0.9832098234724432</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9948111933226125</v>
+        <v>0.9948704073103758</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>745</v>
@@ -6190,19 +6190,19 @@
         <v>772818</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>758335</v>
+        <v>758572</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>784380</v>
+        <v>785125</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9409821705653318</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9233467192208629</v>
+        <v>0.9236359652283576</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.955060163335586</v>
+        <v>0.9559664068224081</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1835</v>
@@ -6211,19 +6211,19 @@
         <v>1909456</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1892530</v>
+        <v>1893557</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1923333</v>
+        <v>1922388</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9698138529566931</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9612172912565621</v>
+        <v>0.9617388019400699</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9768618512171637</v>
+        <v>0.9763820185194314</v>
       </c>
     </row>
     <row r="19">
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4827</v>
+        <v>4851</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001547052238835774</v>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007787290337440903</v>
+        <v>0.007826354159313738</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -6336,19 +6336,19 @@
         <v>3312</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9150</v>
+        <v>8186</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.004509640577051</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001341935079913438</v>
+        <v>0.00133745795775769</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0124596295884976</v>
+        <v>0.01114674410805842</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -6357,19 +6357,19 @@
         <v>4271</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>997</v>
+        <v>1160</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10755</v>
+        <v>10947</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003153575070982203</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00073639852503181</v>
+        <v>0.0008568025944878442</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007941852739321801</v>
+        <v>0.008083676505754126</v>
       </c>
     </row>
     <row r="21">
@@ -6386,19 +6386,19 @@
         <v>6979</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2988</v>
+        <v>3014</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13847</v>
+        <v>13921</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01125793294212791</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004819685667329276</v>
+        <v>0.004862294434585438</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02233803444208862</v>
+        <v>0.02245740179799383</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -6407,19 +6407,19 @@
         <v>13434</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7379</v>
+        <v>7008</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22711</v>
+        <v>21756</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01829296275101614</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01004785683571909</v>
+        <v>0.00954253775466947</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03092562867080863</v>
+        <v>0.02962610809815273</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -6428,19 +6428,19 @@
         <v>20412</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12514</v>
+        <v>13135</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>30835</v>
+        <v>32198</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01507281868478171</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.009240673506469137</v>
+        <v>0.009698906109695999</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02276921476365391</v>
+        <v>0.02377574983578202</v>
       </c>
     </row>
     <row r="22">
@@ -6457,19 +6457,19 @@
         <v>611940</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>605063</v>
+        <v>604757</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>616035</v>
+        <v>615979</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9871950148190363</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9761005813924009</v>
+        <v>0.9756068281617277</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9938008913991242</v>
+        <v>0.9937101676921852</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>679</v>
@@ -6478,19 +6478,19 @@
         <v>717621</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>707749</v>
+        <v>708680</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>724394</v>
+        <v>724359</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9771973966719328</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9637556961556212</v>
+        <v>0.9650228811499446</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9864216030101738</v>
+        <v>0.986373786462541</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1267</v>
@@ -6499,19 +6499,19 @@
         <v>1329562</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1317967</v>
+        <v>1318073</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1338763</v>
+        <v>1337792</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.981773606244236</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9732115189380376</v>
+        <v>0.9732896006347508</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9885679464485501</v>
+        <v>0.9878505417971053</v>
       </c>
     </row>
     <row r="23">
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6939</v>
+        <v>6646</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.001758084649907616</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.006426081401904623</v>
+        <v>0.006154701057318688</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6279</v>
+        <v>6018</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001392008391738992</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.00460468236207699</v>
+        <v>0.004412928310703239</v>
       </c>
     </row>
     <row r="25">
@@ -6666,19 +6666,19 @@
         <v>3050</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8180</v>
+        <v>8329</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01073966030425241</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003390547427350485</v>
+        <v>0.003359129102086696</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02880703699080895</v>
+        <v>0.02933070347345337</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -6687,19 +6687,19 @@
         <v>17117</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10092</v>
+        <v>10710</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25991</v>
+        <v>27170</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01585235078528422</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009346939094840547</v>
+        <v>0.009918736070210951</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02407138829932044</v>
+        <v>0.02516302291279192</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -6708,19 +6708,19 @@
         <v>20166</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12398</v>
+        <v>11963</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>30400</v>
+        <v>29757</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01478776347967933</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009091316341654368</v>
+        <v>0.008772253567432971</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02229234088884366</v>
+        <v>0.02182018170278666</v>
       </c>
     </row>
     <row r="26">
@@ -6737,19 +6737,19 @@
         <v>280909</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>275779</v>
+        <v>275630</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>282996</v>
+        <v>283005</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9892603396957476</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.971192963009191</v>
+        <v>0.9706692965265467</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9966094525726495</v>
+        <v>0.9966408708979133</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>971</v>
@@ -6758,19 +6758,19 @@
         <v>1060742</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1050894</v>
+        <v>1049810</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1067889</v>
+        <v>1067735</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9823895645648082</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9732692147472103</v>
+        <v>0.9722647061513408</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9890088791649485</v>
+        <v>0.9888659669140133</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1237</v>
@@ -6779,19 +6779,19 @@
         <v>1341651</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1331305</v>
+        <v>1331396</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1350103</v>
+        <v>1350515</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9838202281285817</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9762330685897777</v>
+        <v>0.9763004032411604</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9900175561513942</v>
+        <v>0.9903198571107866</v>
       </c>
     </row>
     <row r="27">
@@ -6886,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7109</v>
+        <v>6967</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0005984816831993071</v>
@@ -6895,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.002108659182264922</v>
+        <v>0.002066580268291671</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -6904,19 +6904,19 @@
         <v>18690</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11685</v>
+        <v>11561</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>29282</v>
+        <v>28253</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005311348364605111</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003320714530462694</v>
+        <v>0.003285476495670079</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.008321319703505531</v>
+        <v>0.008028997723356806</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>21</v>
@@ -6925,19 +6925,19 @@
         <v>20708</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12951</v>
+        <v>13908</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>31077</v>
+        <v>31743</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003005454358273312</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001879667076062178</v>
+        <v>0.002018533363425923</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.004510430778302764</v>
+        <v>0.004607015272398766</v>
       </c>
     </row>
     <row r="29">
@@ -6954,19 +6954,19 @@
         <v>29878</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20525</v>
+        <v>21025</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41734</v>
+        <v>43856</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008863016847859614</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00608855774861069</v>
+        <v>0.006236658781929847</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01237967260685742</v>
+        <v>0.013009324597539</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>106</v>
@@ -6975,19 +6975,19 @@
         <v>106067</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>88330</v>
+        <v>87782</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>128892</v>
+        <v>127983</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0301420022210621</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02510147478820772</v>
+        <v>0.02494589176911507</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03662833349958405</v>
+        <v>0.0363702472129136</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>136</v>
@@ -6996,19 +6996,19 @@
         <v>135945</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>116424</v>
+        <v>116156</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>159120</v>
+        <v>161322</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01973069883612243</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01689749335553511</v>
+        <v>0.01685855326865675</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02309418359477637</v>
+        <v>0.02341380904522042</v>
       </c>
     </row>
     <row r="30">
@@ -7025,19 +7025,19 @@
         <v>3339237</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3327038</v>
+        <v>3325169</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3349218</v>
+        <v>3348591</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9905385014689411</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9869198296358088</v>
+        <v>0.9863655383418093</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9934992371127007</v>
+        <v>0.9933133188085128</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3189</v>
@@ -7046,19 +7046,19 @@
         <v>3394149</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3369929</v>
+        <v>3371311</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3414204</v>
+        <v>3415362</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9645466494143328</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9576638989706728</v>
+        <v>0.9580565014169145</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9702459206785944</v>
+        <v>0.9705749454631694</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6368</v>
@@ -7067,19 +7067,19 @@
         <v>6733385</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6707628</v>
+        <v>6706193</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6756042</v>
+        <v>6756338</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9772638468056043</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9735256117919668</v>
+        <v>0.9733172141050017</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.980552245348415</v>
+        <v>0.9805952158294733</v>
       </c>
     </row>
     <row r="31">
